--- a/data/usda-families/size/size.xlsx
+++ b/data/usda-families/size/size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3796D1-C04C-6940-BC50-A8BACBC3DC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A36CAA-0A12-524F-89D9-C290E2FD9DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29940" yWindow="-60" windowWidth="28800" windowHeight="18000" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
+    <t>length.mm</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -53,51 +110,6 @@
     <t>D5</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
@@ -111,25 +123,13 @@
   </si>
   <si>
     <t>E5</t>
-  </si>
-  <si>
-    <t>length.mm</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,6 +140,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,7 +511,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,16 +521,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -533,7 +539,7 @@
         <v>20250506</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>17.896999999999998</v>
@@ -548,7 +554,7 @@
         <v>20250506</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>20.878</v>
@@ -563,7 +569,7 @@
         <v>20250506</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>16.125</v>
@@ -578,7 +584,7 @@
         <v>20250506</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>18.059999999999999</v>
@@ -593,7 +599,7 @@
         <v>20250506</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>17.21</v>
@@ -608,7 +614,7 @@
         <v>20250506</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>15.051</v>
@@ -623,7 +629,7 @@
         <v>20250506</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>15.234999999999999</v>
@@ -638,7 +644,7 @@
         <v>20250506</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>16.835999999999999</v>
@@ -653,7 +659,7 @@
         <v>20250506</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>18.683</v>
@@ -668,7 +674,7 @@
         <v>20250506</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>16.545999999999999</v>
@@ -683,7 +689,7 @@
         <v>20250506</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>15.272</v>
@@ -698,7 +704,7 @@
         <v>20250506</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>18.968</v>
@@ -713,7 +719,7 @@
         <v>20250506</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>16.594999999999999</v>
@@ -728,7 +734,7 @@
         <v>20250506</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>21.704000000000001</v>
@@ -743,7 +749,7 @@
         <v>20250506</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>19.73</v>
@@ -758,7 +764,7 @@
         <v>20250506</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>15.571</v>
@@ -773,7 +779,7 @@
         <v>20250506</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>20.190999999999999</v>
@@ -788,7 +794,7 @@
         <v>20250506</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>15.843</v>
@@ -803,7 +809,7 @@
         <v>20250506</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>14.153</v>
@@ -818,7 +824,7 @@
         <v>20250506</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>18.763000000000002</v>
@@ -833,7 +839,7 @@
         <v>20250506</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>20.626000000000001</v>
@@ -848,7 +854,7 @@
         <v>20250506</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>18.542999999999999</v>
@@ -863,7 +869,7 @@
         <v>20250506</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>20.856000000000002</v>
@@ -878,7 +884,7 @@
         <v>20250506</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>18.605</v>
@@ -893,7 +899,7 @@
         <v>20250506</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>23.173999999999999</v>
@@ -1028,6 +1034,7 @@
       <c r="B66" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/usda-families/size/size.xlsx
+++ b/data/usda-families/size/size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A36CAA-0A12-524F-89D9-C290E2FD9DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B1477-BC92-F144-A2A8-D0C216E51967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
+    <workbookView xWindow="17580" yWindow="760" windowWidth="12660" windowHeight="17260" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>length.mm</t>
   </si>
@@ -511,7 +511,7 @@
   <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -910,121 +910,397 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
+      <c r="A27">
+        <v>20250513</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>17.48</v>
+      </c>
+      <c r="D27">
+        <v>177.47900000000001</v>
+      </c>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
+      <c r="A28">
+        <v>20250513</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>14.289</v>
+      </c>
+      <c r="D28">
+        <v>113.44199999999999</v>
+      </c>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
+      <c r="A29">
+        <v>20250513</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>15.5</v>
+      </c>
+      <c r="D29">
+        <v>123.788</v>
+      </c>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20250513</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>14.762</v>
+      </c>
+      <c r="D30">
+        <v>107.637</v>
+      </c>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
+      <c r="A31">
+        <v>20250513</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>16.318999999999999</v>
+      </c>
+      <c r="D31">
+        <v>184.042</v>
+      </c>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20250513</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>18.527000000000001</v>
+      </c>
+      <c r="D32">
+        <v>169.06399999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20250513</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>15.419</v>
+      </c>
+      <c r="D33">
+        <v>140.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20250513</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>14.48</v>
+      </c>
+      <c r="D34">
+        <v>143.61099999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20250513</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>16.559000000000001</v>
+      </c>
+      <c r="D35">
+        <v>154.05500000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20250513</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>15.683999999999999</v>
+      </c>
+      <c r="D36">
+        <v>174.322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20250513</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>20.678000000000001</v>
+      </c>
+      <c r="D37">
+        <v>237.83600000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20250513</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>14.311</v>
+      </c>
+      <c r="D38">
+        <v>127.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20250513</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>14.215</v>
+      </c>
+      <c r="D39">
+        <v>140.88499999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20250513</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>17.335000000000001</v>
+      </c>
+      <c r="D40">
+        <v>194.83099999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20250513</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>21.035</v>
+      </c>
+      <c r="D41">
+        <v>258.553</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>20250513</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>19.798999999999999</v>
+      </c>
+      <c r="D42">
+        <v>219.57900000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20250513</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>17.22</v>
+      </c>
+      <c r="D43">
+        <v>160.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>20250513</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>16.512</v>
+      </c>
+      <c r="D44">
+        <v>175.94300000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20250513</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>16.361000000000001</v>
+      </c>
+      <c r="D45">
+        <v>147.91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20250513</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>21.093</v>
+      </c>
+      <c r="D46">
+        <v>234.952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>20250513</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>19.13</v>
+      </c>
+      <c r="D47">
+        <v>166.50700000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20250513</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>15.736000000000001</v>
+      </c>
+      <c r="D48">
+        <v>158.62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20250513</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49">
+        <v>16.893000000000001</v>
+      </c>
+      <c r="D49">
+        <v>131.79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20250513</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>15.061</v>
+      </c>
+      <c r="D50">
+        <v>88.245000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20250513</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51">
+        <v>16.948</v>
+      </c>
+      <c r="D51">
+        <v>137.267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">

--- a/data/usda-families/size/size.xlsx
+++ b/data/usda-families/size/size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E713A4EE-7B1D-444F-B446-5E3FD5FD7044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F17E0-EACD-C149-915D-F500F21842B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17580" yWindow="760" windowWidth="12660" windowHeight="17260" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>length.mm</t>
   </si>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5332F4-46C5-F947-90EB-95CC8225298E}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:D76"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,6 +1614,356 @@
         <v>142.01599999999999</v>
       </c>
     </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="1">
+        <v>16.18</v>
+      </c>
+      <c r="D77" s="1">
+        <v>160.33699999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1">
+        <v>16.477</v>
+      </c>
+      <c r="D78" s="1">
+        <v>142.797</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1">
+        <v>15.737</v>
+      </c>
+      <c r="D79" s="1">
+        <v>139.80699999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1">
+        <v>14.180999999999999</v>
+      </c>
+      <c r="D80" s="1">
+        <v>113.994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1">
+        <v>18.452999999999999</v>
+      </c>
+      <c r="D81" s="1">
+        <v>223.53299999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1">
+        <v>17.169</v>
+      </c>
+      <c r="D82" s="1">
+        <v>181.102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="1">
+        <v>15.659000000000001</v>
+      </c>
+      <c r="D83" s="1">
+        <v>145.273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="1">
+        <v>17.751999999999999</v>
+      </c>
+      <c r="D84" s="1">
+        <v>131.476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="1">
+        <v>16.82</v>
+      </c>
+      <c r="D85" s="1">
+        <v>161.20699999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="1">
+        <v>21.943999999999999</v>
+      </c>
+      <c r="D86" s="1">
+        <v>212.886</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="1">
+        <v>20.908999999999999</v>
+      </c>
+      <c r="D87" s="1">
+        <v>210.125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="1">
+        <v>14.603</v>
+      </c>
+      <c r="D88" s="1">
+        <v>144.41200000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="1">
+        <v>16.466000000000001</v>
+      </c>
+      <c r="D89" s="1">
+        <v>163.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="1">
+        <v>18.945</v>
+      </c>
+      <c r="D90" s="1">
+        <v>218.34800000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="1">
+        <v>17.736000000000001</v>
+      </c>
+      <c r="D91" s="1">
+        <v>176.03</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="1">
+        <v>15.512</v>
+      </c>
+      <c r="D92" s="1">
+        <v>147.923</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="1">
+        <v>15.987</v>
+      </c>
+      <c r="D93" s="1">
+        <v>169.637</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="1">
+        <v>14.522</v>
+      </c>
+      <c r="D94" s="1">
+        <v>134.59800000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="1">
+        <v>18.655999999999999</v>
+      </c>
+      <c r="D95" s="1">
+        <v>216.816</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="1">
+        <v>18.363</v>
+      </c>
+      <c r="D96" s="1">
+        <v>191.185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="1">
+        <v>15.992000000000001</v>
+      </c>
+      <c r="D97" s="1">
+        <v>128.91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="1">
+        <v>20.524000000000001</v>
+      </c>
+      <c r="D98" s="1">
+        <v>209.49600000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="1">
+        <v>20.95</v>
+      </c>
+      <c r="D99" s="1">
+        <v>249.12200000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="1">
+        <v>21.321999999999999</v>
+      </c>
+      <c r="D100" s="1">
+        <v>237.16399999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>20250527</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="1">
+        <v>19.579000000000001</v>
+      </c>
+      <c r="D101" s="1">
+        <v>191.27600000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/usda-families/size/size.xlsx
+++ b/data/usda-families/size/size.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2F17E0-EACD-C149-915D-F500F21842B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D0A288-39FF-9F4F-B6F2-5942571D84FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17580" yWindow="760" windowWidth="12660" windowHeight="17260" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
+    <workbookView xWindow="13640" yWindow="760" windowWidth="12660" windowHeight="17260" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="29">
   <si>
     <t>length.mm</t>
   </si>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5332F4-46C5-F947-90EB-95CC8225298E}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1964,6 +1964,356 @@
         <v>191.27600000000001</v>
       </c>
     </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1">
+        <v>18.777999999999999</v>
+      </c>
+      <c r="D102" s="1">
+        <v>213.339</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>17.231000000000002</v>
+      </c>
+      <c r="D103" s="1">
+        <v>168.91399999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="1">
+        <v>18.943000000000001</v>
+      </c>
+      <c r="D104" s="1">
+        <v>198.49799999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="1">
+        <v>19.14</v>
+      </c>
+      <c r="D105" s="1">
+        <v>240.02</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="1">
+        <v>18.893999999999998</v>
+      </c>
+      <c r="D106" s="1">
+        <v>187.203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="1">
+        <v>17.28</v>
+      </c>
+      <c r="D107" s="1">
+        <v>174.59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="1">
+        <v>21.661999999999999</v>
+      </c>
+      <c r="D108" s="1">
+        <v>259.233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="1">
+        <v>22.318999999999999</v>
+      </c>
+      <c r="D109" s="1">
+        <v>264.66800000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="1">
+        <v>19.094000000000001</v>
+      </c>
+      <c r="D110" s="1">
+        <v>221.85599999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="1">
+        <v>17.486999999999998</v>
+      </c>
+      <c r="D111" s="1">
+        <v>201.31899999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="1">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="D112" s="1">
+        <v>232.221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="1">
+        <v>20.085000000000001</v>
+      </c>
+      <c r="D113" s="1">
+        <v>243.53700000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="1">
+        <v>16.919</v>
+      </c>
+      <c r="D114" s="1">
+        <v>156.887</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="1">
+        <v>21.558</v>
+      </c>
+      <c r="D115" s="1">
+        <v>215.84200000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="1">
+        <v>20.244</v>
+      </c>
+      <c r="D116" s="1">
+        <v>247.27500000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="1">
+        <v>16.677</v>
+      </c>
+      <c r="D117" s="1">
+        <v>148.791</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" s="1">
+        <v>17.654</v>
+      </c>
+      <c r="D118" s="1">
+        <v>206.036</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" s="1">
+        <v>17.239000000000001</v>
+      </c>
+      <c r="D119" s="1">
+        <v>187.57499999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120" s="1">
+        <v>16.382000000000001</v>
+      </c>
+      <c r="D120" s="1">
+        <v>164.63200000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="1">
+        <v>15.236000000000001</v>
+      </c>
+      <c r="D121" s="1">
+        <v>144.02600000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="1">
+        <v>19.355</v>
+      </c>
+      <c r="D122" s="1">
+        <v>200.154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="1">
+        <v>19.818000000000001</v>
+      </c>
+      <c r="D123" s="1">
+        <v>219.00800000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" s="1">
+        <v>20.916</v>
+      </c>
+      <c r="D124" s="1">
+        <v>192.00200000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="1">
+        <v>15.792999999999999</v>
+      </c>
+      <c r="D125" s="1">
+        <v>163.20400000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>20250603</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="1">
+        <v>18.442</v>
+      </c>
+      <c r="D126" s="1">
+        <v>206.78100000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/usda-families/size/size.xlsx
+++ b/data/usda-families/size/size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/usda-families/size/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D0A288-39FF-9F4F-B6F2-5942571D84FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F20B1B-B436-FE46-ABEC-4AF5647F5D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13640" yWindow="760" windowWidth="12660" windowHeight="17260" xr2:uid="{82B90333-BA24-8845-9D16-9ED0467060EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="29">
   <si>
     <t>length.mm</t>
   </si>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5332F4-46C5-F947-90EB-95CC8225298E}">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2314,6 +2314,356 @@
         <v>206.78100000000001</v>
       </c>
     </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="1">
+        <v>13.942</v>
+      </c>
+      <c r="D127" s="1">
+        <v>127.848</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="1">
+        <v>18.236000000000001</v>
+      </c>
+      <c r="D128" s="1">
+        <v>198.29900000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="1">
+        <v>13.949</v>
+      </c>
+      <c r="D129" s="1">
+        <v>125.464</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="1">
+        <v>15.763999999999999</v>
+      </c>
+      <c r="D130" s="1">
+        <v>150.21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="1">
+        <v>15.973000000000001</v>
+      </c>
+      <c r="D131" s="1">
+        <v>147.834</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="1">
+        <v>21.608000000000001</v>
+      </c>
+      <c r="D132" s="1">
+        <v>227.85499999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="1">
+        <v>20.777000000000001</v>
+      </c>
+      <c r="D133" s="1">
+        <v>231.61699999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="1">
+        <v>19.744</v>
+      </c>
+      <c r="D134" s="1">
+        <v>245.61799999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="1">
+        <v>21.991</v>
+      </c>
+      <c r="D135" s="1">
+        <v>279.88400000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="1">
+        <v>20.222999999999999</v>
+      </c>
+      <c r="D136" s="1">
+        <v>194.06299999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="1">
+        <v>19.503</v>
+      </c>
+      <c r="D137" s="1">
+        <v>264.7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" s="1">
+        <v>20.873000000000001</v>
+      </c>
+      <c r="D138" s="1">
+        <v>232.108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="1">
+        <v>16.806999999999999</v>
+      </c>
+      <c r="D139" s="1">
+        <v>166.42500000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="1">
+        <v>18.510999999999999</v>
+      </c>
+      <c r="D140" s="1">
+        <v>176.79</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="1">
+        <v>20.67</v>
+      </c>
+      <c r="D141" s="1">
+        <v>243.31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="1">
+        <v>13.461</v>
+      </c>
+      <c r="D142" s="1">
+        <v>121.627</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="1">
+        <v>16.422000000000001</v>
+      </c>
+      <c r="D143" s="1">
+        <v>184.797</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="1">
+        <v>14.881</v>
+      </c>
+      <c r="D144" s="1">
+        <v>149.41499999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="1">
+        <v>18.774000000000001</v>
+      </c>
+      <c r="D145" s="1">
+        <v>184.85599999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="1">
+        <v>17.244</v>
+      </c>
+      <c r="D146" s="1">
+        <v>150.85300000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="1">
+        <v>25.245999999999999</v>
+      </c>
+      <c r="D147" s="1">
+        <v>349.45499999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" s="1">
+        <v>25.617999999999999</v>
+      </c>
+      <c r="D148" s="1">
+        <v>291.77800000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149" s="1">
+        <v>21.58</v>
+      </c>
+      <c r="D149" s="1">
+        <v>271.65800000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" s="1">
+        <v>15.941000000000001</v>
+      </c>
+      <c r="D150" s="1">
+        <v>183.732</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>20250610</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" s="1">
+        <v>22.937000000000001</v>
+      </c>
+      <c r="D151" s="1">
+        <v>280.86399999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
